--- a/doc/项目功能.xlsx
+++ b/doc/项目功能.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="313">
   <si>
     <t>表名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,14 +428,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>试题管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对试题进行上传，提供学生测试（每个课程视频针对一个试题）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>课程笔记</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -444,14 +436,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>课程测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同学可以对课程的某一个视频进行测试（测试完便出现结果）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>同学可以提出问题，给他们解答</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -480,19 +464,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最近测试的课程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最近笔记过的课程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>同学可以查看最近播放的课程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同学可以查看最近测试过的课程，并且显示成绩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1710,18 +1686,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1742,6 +1706,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2079,10 +2055,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
@@ -2143,7 +2119,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -2159,7 +2135,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -2486,7 +2462,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2526,7 +2502,7 @@
         <v>83</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -2541,7 +2517,7 @@
         <v>85</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -2556,7 +2532,7 @@
         <v>87</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -2571,7 +2547,7 @@
         <v>89</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -2586,7 +2562,7 @@
         <v>91</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -2601,7 +2577,7 @@
         <v>93</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -2609,14 +2585,14 @@
       <c r="A8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>133</v>
+      <c r="D8" s="19" t="s">
+        <v>127</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -2631,7 +2607,7 @@
         <v>97</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E9" s="5"/>
     </row>
@@ -2639,14 +2615,14 @@
       <c r="A10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>134</v>
+      <c r="D10" s="19" t="s">
+        <v>128</v>
       </c>
       <c r="E10" s="5"/>
     </row>
@@ -2654,14 +2630,14 @@
       <c r="A11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>134</v>
+      <c r="D11" s="19" t="s">
+        <v>128</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>103</v>
@@ -2671,14 +2647,14 @@
       <c r="A12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>134</v>
+      <c r="D12" s="19" t="s">
+        <v>128</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -2686,14 +2662,14 @@
       <c r="A13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>131</v>
+      <c r="D13" s="19" t="s">
+        <v>125</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -2708,7 +2684,7 @@
         <v>109</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E14" s="5"/>
     </row>
@@ -2716,14 +2692,14 @@
       <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>131</v>
+      <c r="D15" s="19" t="s">
+        <v>125</v>
       </c>
       <c r="E15" s="5"/>
     </row>
@@ -2732,46 +2708,34 @@
         <v>55</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>135</v>
-      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>134</v>
-      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2779,13 +2743,13 @@
         <v>58</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E19" s="5"/>
     </row>
@@ -2794,13 +2758,13 @@
         <v>59</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E20" s="5"/>
     </row>
@@ -2809,13 +2773,13 @@
         <v>60</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E21" s="5"/>
     </row>
@@ -2824,13 +2788,13 @@
         <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E22" s="5"/>
     </row>
@@ -2838,15 +2802,9 @@
       <c r="A23" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>135</v>
-      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2854,13 +2812,13 @@
         <v>63</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="E24" s="5"/>
     </row>
@@ -2976,1438 +2934,1450 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D2" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E2" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="7" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="23"/>
+      <c r="B3" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="D3" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="9" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="23"/>
+      <c r="B4" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="D4" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="23"/>
+      <c r="B5" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="23"/>
+      <c r="B6" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="24"/>
+      <c r="B7" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
-      <c r="B3" s="9" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="23"/>
+      <c r="B9" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="23"/>
+      <c r="B10" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="23"/>
+      <c r="B11" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="23"/>
+      <c r="B12" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="23"/>
+      <c r="B13" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="23"/>
+      <c r="B14" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="23"/>
+      <c r="B15" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="23"/>
+      <c r="B16" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="23"/>
+      <c r="B17" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="23"/>
+      <c r="B18" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="23"/>
+      <c r="B19" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="23"/>
+      <c r="B20" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="24"/>
+      <c r="B21" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="23"/>
+      <c r="B23" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
-      <c r="B4" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
-      <c r="B5" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
-      <c r="B6" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="C23" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="23"/>
+      <c r="B24" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="24"/>
+      <c r="B25" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
-      <c r="B9" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
-      <c r="B10" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
-      <c r="B11" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
-      <c r="B12" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
-      <c r="B13" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
-      <c r="B16" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="15" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
-      <c r="B17" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
-      <c r="B18" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="15" t="s">
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="23"/>
+      <c r="B27" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="23"/>
+      <c r="B28" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="23"/>
+      <c r="B29" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="24"/>
+      <c r="B30" s="9" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
-      <c r="B19" s="9" t="s">
+      <c r="C30" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
-      <c r="B20" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
-      <c r="B21" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" s="12" t="s">
+    </row>
+    <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="28"/>
+      <c r="G31" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
-      <c r="B23" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
-      <c r="B24" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C24" s="9" t="s">
+    </row>
+    <row r="32" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="23"/>
+      <c r="B32" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="15" t="s">
+      <c r="C32" s="9" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
-      <c r="B25" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="27"/>
-      <c r="B27" s="9" t="s">
+      <c r="D32" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="15" t="s">
+    </row>
+    <row r="33" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="23"/>
+      <c r="B33" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27"/>
-      <c r="B28" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="15" t="s">
+      <c r="C33" s="9" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
-      <c r="B29" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="15" t="s">
+      <c r="D33" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="15" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="28"/>
-      <c r="B30" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="27"/>
-      <c r="B32" s="17" t="s">
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="23"/>
+      <c r="B34" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C34" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="D32" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="15" t="s">
+      <c r="D34" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="15" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="27"/>
-      <c r="B33" s="17" t="s">
+    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="24"/>
+      <c r="B35" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="D35" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F36" s="28"/>
+      <c r="G36" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="26"/>
+      <c r="B37" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="15" t="s">
+      <c r="C37" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="26"/>
+      <c r="B38" s="10" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="27"/>
-      <c r="B34" s="9" t="s">
+      <c r="C38" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="26"/>
+      <c r="B39" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C39" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" s="13"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="26"/>
+      <c r="B40" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" s="13"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="26"/>
+      <c r="B41" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="26"/>
+      <c r="B42" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D34" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="15" t="s">
+      <c r="C42" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="26"/>
+      <c r="B43" s="10" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="28"/>
-      <c r="B35" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C35" s="9" t="s">
+      <c r="C43" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="26"/>
+      <c r="B44" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D35" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="30"/>
-      <c r="B37" s="17" t="s">
+      <c r="C44" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" s="13"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="26"/>
+      <c r="B45" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="27"/>
+      <c r="B46" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="30"/>
-      <c r="B38" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="30"/>
-      <c r="B39" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="10" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="30"/>
-      <c r="B40" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="10" t="s">
+      <c r="C46" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46" s="13"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="10" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="30"/>
-      <c r="B41" s="10" t="s">
+    <row r="47" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F47" s="28"/>
+      <c r="G47" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+      <c r="B48" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E48" s="13"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="21"/>
+      <c r="B49" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E49" s="13"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="21"/>
+      <c r="B50" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" s="13"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="21"/>
+      <c r="B51" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E51" s="13"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="21"/>
+      <c r="B52" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" s="13"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="21"/>
+      <c r="B53" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E53" s="13"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="21"/>
+      <c r="B54" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E54" s="13"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F55" s="28"/>
+      <c r="G55" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="21"/>
+      <c r="B56" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E56" s="13"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="21"/>
+      <c r="B57" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E57" s="13"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F58" s="28"/>
+      <c r="G58" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="21"/>
+      <c r="B59" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E59" s="13"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="21"/>
+      <c r="B60" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E60" s="13"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="21"/>
+      <c r="B61" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E61" s="13"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="21"/>
+      <c r="B62" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E62" s="13"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C63" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="10" t="s">
+      <c r="D63" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F63" s="28"/>
+      <c r="G63" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="21"/>
+      <c r="B64" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" s="13"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="21"/>
+      <c r="B65" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E65" s="13"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="21"/>
+      <c r="B66" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E66" s="13"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="21"/>
+      <c r="B67" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E67" s="13"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="21"/>
+      <c r="B68" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E68" s="13"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="21"/>
+      <c r="B69" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E69" s="13"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="21"/>
+      <c r="B70" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E70" s="13"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F71" s="28"/>
+      <c r="G71" s="10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="21"/>
+      <c r="B72" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E72" s="13"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="21"/>
+      <c r="B73" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E73" s="13"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="21"/>
+      <c r="B74" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E74" s="13"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="21"/>
+      <c r="B75" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E75" s="13"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="21"/>
+      <c r="B76" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E76" s="13"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="21"/>
+      <c r="B77" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E77" s="13"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="21"/>
+      <c r="B78" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E78" s="13"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="B79" s="10" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="30"/>
-      <c r="B42" s="10" t="s">
+      <c r="C79" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F79" s="28"/>
+      <c r="G79" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="21"/>
+      <c r="B80" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E80" s="13"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="21"/>
+      <c r="B81" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="30"/>
-      <c r="B43" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="30"/>
-      <c r="B44" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="30"/>
-      <c r="B45" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="31"/>
-      <c r="B46" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F47" s="21"/>
-      <c r="G47" s="10" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="25"/>
-      <c r="B48" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="25"/>
-      <c r="B49" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="25"/>
-      <c r="B50" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="25"/>
-      <c r="B51" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="25"/>
-      <c r="B52" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E52" s="13"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="25"/>
-      <c r="B53" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E53" s="13"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E54" s="13"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="25" t="s">
+      <c r="C81" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E81" s="13"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F55" s="21"/>
-      <c r="G55" s="10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="25"/>
-      <c r="B56" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E56" s="13"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="25"/>
-      <c r="B57" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E57" s="13"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F58" s="21"/>
-      <c r="G58" s="10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="25"/>
-      <c r="B59" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E59" s="13"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="25"/>
-      <c r="B60" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E60" s="13"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="10" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E61" s="13"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="25"/>
-      <c r="B62" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E62" s="13"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F63" s="21"/>
-      <c r="G63" s="10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="25"/>
-      <c r="B64" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E64" s="13"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="25"/>
-      <c r="B65" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E65" s="13"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="25"/>
-      <c r="B66" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E66" s="13"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="25"/>
-      <c r="B67" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E67" s="13"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="10" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="25"/>
-      <c r="B68" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E68" s="13"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="25"/>
-      <c r="B69" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E69" s="13"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="10" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="25"/>
-      <c r="B70" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E70" s="13"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F71" s="21"/>
-      <c r="G71" s="10" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="25"/>
-      <c r="B72" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E72" s="13"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="25"/>
-      <c r="B73" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E73" s="13"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="25"/>
-      <c r="B74" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E74" s="13"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
-      <c r="B75" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E75" s="13"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="10" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="25"/>
-      <c r="B76" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E76" s="13"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="25"/>
-      <c r="B77" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E77" s="13"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="25"/>
-      <c r="B78" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E78" s="13"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F79" s="21"/>
-      <c r="G79" s="10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="25"/>
-      <c r="B80" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E80" s="13"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="25"/>
-      <c r="B81" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E81" s="13"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="10" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="F79:F81"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="F36:F46"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="F8:F21"/>
+    <mergeCell ref="F47:F54"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="F58:F62"/>
+    <mergeCell ref="F63:F70"/>
+    <mergeCell ref="F71:F78"/>
     <mergeCell ref="A79:A81"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A21"/>
@@ -4420,18 +4390,6 @@
     <mergeCell ref="A58:A62"/>
     <mergeCell ref="A63:A70"/>
     <mergeCell ref="A71:A78"/>
-    <mergeCell ref="F79:F81"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="F26:F30"/>
-    <mergeCell ref="F31:F35"/>
-    <mergeCell ref="F36:F46"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="F8:F21"/>
-    <mergeCell ref="F47:F54"/>
-    <mergeCell ref="F55:F57"/>
-    <mergeCell ref="F58:F62"/>
-    <mergeCell ref="F63:F70"/>
-    <mergeCell ref="F71:F78"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
